--- a/WebSite/bExcellent.mvc/ExcelTemplates/MSADataDump.xlsx
+++ b/WebSite/bExcellent.mvc/ExcelTemplates/MSADataDump.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Team member Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Team member Report'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Team member Report'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Area</t>
   </si>
@@ -30,21 +30,6 @@
     <t>Country/Location</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
     <t>Team member Full Name</t>
   </si>
   <si>
@@ -57,103 +42,67 @@
     <t>Manager Alias</t>
   </si>
   <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
-    <t>Q9</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>Q11</t>
-  </si>
-  <si>
-    <t>Q12</t>
-  </si>
-  <si>
-    <t>Q13</t>
-  </si>
-  <si>
-    <t>Q14</t>
-  </si>
-  <si>
-    <t>Q15</t>
-  </si>
-  <si>
-    <t>Q16</t>
-  </si>
-  <si>
-    <t>Q17</t>
-  </si>
-  <si>
-    <t>Q18</t>
-  </si>
-  <si>
-    <t>Q19</t>
-  </si>
-  <si>
-    <t>Q20</t>
-  </si>
-  <si>
-    <t>Q21</t>
-  </si>
-  <si>
-    <t>Q22</t>
-  </si>
-  <si>
-    <t>Q23</t>
-  </si>
-  <si>
-    <t>Q24</t>
-  </si>
-  <si>
-    <t>Q25</t>
-  </si>
-  <si>
-    <t>Q26</t>
-  </si>
-  <si>
-    <t>Q27</t>
-  </si>
-  <si>
-    <t>Q28</t>
-  </si>
-  <si>
-    <t>Q29</t>
-  </si>
-  <si>
-    <t>Q30</t>
-  </si>
-  <si>
     <t>Relation</t>
   </si>
   <si>
-    <t>Q31</t>
-  </si>
-  <si>
-    <t>Q32</t>
-  </si>
-  <si>
-    <t>Q33</t>
-  </si>
-  <si>
-    <t>Q34</t>
-  </si>
-  <si>
     <t>Role Excellence Profile</t>
   </si>
   <si>
-    <t>Answer Type</t>
-  </si>
-  <si>
-    <t>WCSI Score</t>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Module Id</t>
+  </si>
+  <si>
+    <t>Question Id</t>
+  </si>
+  <si>
+    <t>Manager Frequency</t>
+  </si>
+  <si>
+    <t>Manager Capability</t>
+  </si>
+  <si>
+    <t>Manager Importance</t>
+  </si>
+  <si>
+    <t>Self Frequency</t>
+  </si>
+  <si>
+    <t>Self Capability</t>
+  </si>
+  <si>
+    <t>Self Importance</t>
+  </si>
+  <si>
+    <t>MF Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MC Overall</t>
+  </si>
+  <si>
+    <t>MI Overall</t>
+  </si>
+  <si>
+    <t>SF Overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Overall</t>
+  </si>
+  <si>
+    <t>SI Overall</t>
+  </si>
+  <si>
+    <t>Development Priorities</t>
+  </si>
+  <si>
+    <t>Report Questions</t>
+  </si>
+  <si>
+    <t>Long Question</t>
+  </si>
+  <si>
+    <t>Short Question</t>
   </si>
 </sst>
 </file>
@@ -505,30 +454,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG2"/>
+  <dimension ref="A1:BH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" customWidth="1"/>
+    <col min="27" max="27" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -537,116 +492,82 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
@@ -662,8 +583,9 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -704,9 +626,10 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:Q1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
